--- a/cursech1.xlsx
+++ b/cursech1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" tabRatio="861"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" tabRatio="861" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Квартиросъемщики" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
-  <si>
-    <t>Idkv</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="67">
   <si>
     <t>FIO</t>
   </si>
@@ -95,9 +92,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>SunShet</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -180,6 +174,54 @@
   </si>
   <si>
     <t>г. Екатеринбург ул. Мира д.6 кв.4</t>
+  </si>
+  <si>
+    <t>Андрей Попов Михайлович</t>
+  </si>
+  <si>
+    <t>Островский Василий Дмитриевич</t>
+  </si>
+  <si>
+    <t>Усмонов Нурсултан Нуруллоевий</t>
+  </si>
+  <si>
+    <t>SumShet</t>
+  </si>
+  <si>
+    <t>Отопление</t>
+  </si>
+  <si>
+    <t>Горячая вода</t>
+  </si>
+  <si>
+    <t>Холодная вода</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Водоотведение </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Газоснабжение </t>
+  </si>
+  <si>
+    <t>Электроэнергия</t>
+  </si>
+  <si>
+    <t>2300 руб./гкал.</t>
+  </si>
+  <si>
+    <t>190 руб./куб.м</t>
+  </si>
+  <si>
+    <t>38 руб./куб.м</t>
+  </si>
+  <si>
+    <t>27 руб./куб.м</t>
+  </si>
+  <si>
+    <t>6 руб./куб.м</t>
+  </si>
+  <si>
+    <t>5 руб./кВтч</t>
   </si>
 </sst>
 </file>
@@ -187,8 +229,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -223,8 +265,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -521,14 +563,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="37" customWidth="1"/>
+    <col min="3" max="3" width="44.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
     <col min="5" max="5" width="24.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
@@ -536,22 +578,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -559,10 +601,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2">
         <v>89657842385</v>
@@ -579,10 +621,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3">
         <v>89462945620</v>
@@ -599,10 +641,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4">
         <v>89563266578</v>
@@ -619,10 +661,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D5">
         <v>89524679353</v>
@@ -639,10 +681,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D6">
         <v>89178561657</v>
@@ -659,10 +701,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D7">
         <v>89042357901</v>
@@ -679,10 +721,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D8">
         <v>89876543210</v>
@@ -699,10 +741,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D9">
         <v>89124567890</v>
@@ -719,10 +761,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D10">
         <v>89053428765</v>
@@ -739,10 +781,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D11">
         <v>89876543211</v>
@@ -762,32 +804,206 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="15.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
       </c>
       <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>38364</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>39154</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>37390</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>39493</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>37088</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1">
+        <v>38824</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1">
+        <v>39709</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>37579</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1">
+        <v>39436</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>10</v>
+      </c>
+      <c r="B11">
+        <v>111</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1">
+        <v>37854</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -798,32 +1014,437 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B2" sqref="B2:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>44573</v>
+      </c>
+      <c r="D2" s="3">
+        <v>15037</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>44633</v>
+      </c>
+      <c r="D3" s="3">
+        <v>21999</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>44695</v>
+      </c>
+      <c r="D4" s="3">
+        <v>17598</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>44607</v>
+      </c>
+      <c r="D5" s="3">
+        <v>13698</v>
+      </c>
+      <c r="E5">
+        <v>21</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>44758</v>
+      </c>
+      <c r="D6" s="3">
+        <v>29999</v>
+      </c>
+      <c r="E6">
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>44668</v>
+      </c>
+      <c r="D7" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>44822</v>
+      </c>
+      <c r="D8" s="3">
+        <v>24670</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>44884</v>
+      </c>
+      <c r="D9" s="3">
+        <v>21850</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>44885</v>
+      </c>
+      <c r="D10" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>44794</v>
+      </c>
+      <c r="D11" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>44604</v>
+      </c>
+      <c r="D12" s="3">
+        <v>15037</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>44664</v>
+      </c>
+      <c r="D13" s="3">
+        <v>21999</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>44726</v>
+      </c>
+      <c r="D14" s="3">
+        <v>17598</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>44635</v>
+      </c>
+      <c r="D15" s="3">
+        <v>13698</v>
+      </c>
+      <c r="E15">
+        <v>21</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>44789</v>
+      </c>
+      <c r="D16" s="3">
+        <v>29999</v>
+      </c>
+      <c r="E16">
+        <v>25</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
         <v>16</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1">
+        <v>44698</v>
+      </c>
+      <c r="D17" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E17">
+        <v>25</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1">
+        <v>44852</v>
+      </c>
+      <c r="D18" s="3">
+        <v>24670</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1">
+        <v>44914</v>
+      </c>
+      <c r="D19" s="3">
+        <v>21850</v>
+      </c>
+      <c r="E19">
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1">
+        <v>44915</v>
+      </c>
+      <c r="D20" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1">
+        <v>44794</v>
+      </c>
+      <c r="D21" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -834,20 +1455,47 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="32.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -867,10 +1515,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -878,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -886,7 +1534,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -896,32 +1544,437 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B2" sqref="B2:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>44573</v>
+      </c>
+      <c r="D2" s="3">
+        <v>15037</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>44574</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>44633</v>
+      </c>
+      <c r="D3" s="3">
+        <v>21999</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>44634</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>44695</v>
+      </c>
+      <c r="D4" s="3">
+        <v>17598</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>44696</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>44607</v>
+      </c>
+      <c r="D5" s="3">
+        <v>13698</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>44608</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>44758</v>
+      </c>
+      <c r="D6" s="3">
+        <v>29999</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>44759</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>44668</v>
+      </c>
+      <c r="D7" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>44669</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>44822</v>
+      </c>
+      <c r="D8" s="3">
+        <v>24670</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>44823</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>44884</v>
+      </c>
+      <c r="D9" s="3">
+        <v>21850</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>44885</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>44885</v>
+      </c>
+      <c r="D10" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>44886</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>44794</v>
+      </c>
+      <c r="D11" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>44795</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>44604</v>
+      </c>
+      <c r="D12" s="3">
+        <v>15037</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>44605</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>44664</v>
+      </c>
+      <c r="D13" s="3">
+        <v>21999</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>44665</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
         <v>13</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>44726</v>
+      </c>
+      <c r="D14" s="3">
+        <v>17598</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>44727</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>44635</v>
+      </c>
+      <c r="D15" s="3">
+        <v>13698</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>44789</v>
+      </c>
+      <c r="D16" s="3">
+        <v>29999</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>44790</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1">
+        <v>44698</v>
+      </c>
+      <c r="D17" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>44699</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1">
+        <v>44852</v>
+      </c>
+      <c r="D18" s="3">
+        <v>24670</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>44853</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1">
+        <v>44914</v>
+      </c>
+      <c r="D19" s="3">
+        <v>21850</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>44915</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1">
+        <v>44915</v>
+      </c>
+      <c r="D20" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>44916</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1">
+        <v>44794</v>
+      </c>
+      <c r="D21" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>44795</v>
       </c>
     </row>
   </sheetData>
@@ -931,23 +1984,93 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -957,23 +2080,92 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" t="s">
-        <v>32</v>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
